--- a/annotations/annotations_test_davinci.xlsx
+++ b/annotations/annotations_test_davinci.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z_har\Documents\GitHub\drums-with-lms\annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD66CA3-2AE1-4EF0-A9AA-6B4D9CFCCB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AD7A75-CAF4-4726-877F-6C45E436059B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{280FD614-83C0-409C-9538-0F76FCA773E5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{280FD614-83C0-409C-9538-0F76FCA773E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -177,6 +177,24 @@
   </si>
   <si>
     <t>Pattern (repetitive, consistent, chaotic)</t>
+  </si>
+  <si>
+    <t>Consistent</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Repetitive</t>
+  </si>
+  <si>
+    <t>Chaotic</t>
   </si>
 </sst>
 </file>
@@ -530,19 +548,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79148FB2-042C-43A1-B866-EA29ACE0F30B}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" customWidth="1"/>
+    <col min="6" max="6" width="2.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -571,300 +589,510 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
       <c r="B29" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
       <c r="B32" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
       <c r="B33" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>39</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>40</v>
       </c>
       <c r="B36" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>41</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>42</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
